--- a/Tutorial/Advanced_options.xlsx
+++ b/Tutorial/Advanced_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feiwu/Box/RNA-Seq/MTD/Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2F10D-7CEB-734D-A625-D9471A361735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F254B02-DCB2-3A48-BC4C-2D9926B018D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="2800" windowWidth="28040" windowHeight="16300" xr2:uid="{9FA9FED7-35A8-D241-8CDD-B0BD5E8B701E}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{9FA9FED7-35A8-D241-8CDD-B0BD5E8B701E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>function</t>
   </si>
@@ -60,6 +60,166 @@
     <t>-m /path/to/metadata.csv</t>
   </si>
   <si>
+    <t>-p xicor</t>
+  </si>
+  <si>
+    <t>-l 20</t>
+  </si>
+  <si>
+    <t>-r 100</t>
+  </si>
+  <si>
+    <t>Added options for MTD running</t>
+  </si>
+  <si>
+    <t>-k</t>
+  </si>
+  <si>
+    <t>-s</t>
+  </si>
+  <si>
+    <t>-k 40</t>
+  </si>
+  <si>
+    <t>-m 35</t>
+  </si>
+  <si>
+    <t>-s 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Represent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--kmer-len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in the kraken2-build: to set the length of kmers used in kraken2 database building, default is 35.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Represent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--minimizer-len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in the kraken2-build: to set the length of minimizer length used in kraken2 database building, default is 31.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Represent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--minimizer-spaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in the kraken2-build: to set the length of minimizer spaces used in kraken2 database building, default is 7. Please refer to kraken2 manual (https://github.com/DerrickWood/kraken2/wiki/Manual#kraken-2-databases) for further explanation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Represent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-l ${READ_LEN}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in bracken-build: the read length of your data, default in MTD is 75.</t>
+    </r>
+  </si>
+  <si>
+    <t>Added options for MTD installation/updating</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add clinic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>metadata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> information as covariance into the design in bulk RNA-seq analysis</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">To select </t>
     </r>
@@ -82,12 +242,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (spearman/pearson/mi/nmi/xicor/dcor) for the association analysis between the microbiome and host gene or pathways. MTD autoselect spearman as the default setting. Please refer to HALLA manual (https://github.com/biobakery/halla) for further explanation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Add clinic </t>
+      <t xml:space="preserve"> (spearman/pearson/mi/nmi/xicor/dcor) for the association analysis between the microbiome and host gene or pathways in in bulk RNA-seq analysis. MTD autoselect spearman as the default setting. Please refer to HALLA manual (https://github.com/biobakery/halla) for further explanation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Represent </t>
     </r>
     <r>
       <rPr>
@@ -98,18 +258,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>metadata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> information as covariance into the design</t>
-    </r>
+      <t>-r ${READ_LEN}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in the Bracken of bulk RNA-seq analysis: the read length of your data, default in MTD is 75.</t>
+    </r>
+  </si>
+  <si>
+    <t>-f</t>
   </si>
   <si>
     <r>
@@ -134,17 +297,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> flag in the fastp: reads shorter than length_required will be discarded, default in MTD is 40</t>
-    </r>
-  </si>
-  <si>
-    <t>-p xicor</t>
-  </si>
-  <si>
-    <t>-l 20</t>
-  </si>
-  <si>
-    <t>-r 100</t>
+      <t xml:space="preserve"> flag in the fastp in bulk RNA-seq analysis: reads shorter than length_required will be discarded, default in MTD is 40</t>
+    </r>
   </si>
   <si>
     <r>
@@ -159,143 +313,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-r ${READ_LEN}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> flag in the Bracken: the read length of your data, default in MTD is 75.</t>
-    </r>
-  </si>
-  <si>
-    <t>Added options for MTD running</t>
-  </si>
-  <si>
-    <t>Added option for MTD installation/updating</t>
-  </si>
-  <si>
-    <t>-k</t>
-  </si>
-  <si>
-    <t>-s</t>
-  </si>
-  <si>
-    <t>-k 40</t>
-  </si>
-  <si>
-    <t>-m 35</t>
-  </si>
-  <si>
-    <t>-s 8</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Represent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>--kmer-len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> flag in the kraken2-build: to set the length of kmers used in kraken2 database building, default is 35.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Represent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>--minimizer-len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> flag in the kraken2-build: to set the length of minimizer length used in kraken2 database building, default is 31.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Represent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>--minimizer-spaces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> flag in the kraken2-build: to set the length of minimizer spaces used in kraken2 database building, default is 7. Please refer to kraken2 manual (https://github.com/DerrickWood/kraken2/wiki/Manual#kraken-2-databases) for further explanation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Represent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-l ${READ_LEN}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> flag in bracken-build: the read length of your data, default in MTD is 75.</t>
-    </r>
+      <t>--length_required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag in the fastp in single-cell RNA-seq analysis: reads shorter than length_required will be discarded, default in MTD is 40</t>
+    </r>
+  </si>
+  <si>
+    <t>-f 20</t>
   </si>
 </sst>
 </file>
@@ -690,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5338A7-6AC6-BA41-B62F-F8B6A2CB1C16}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -721,116 +753,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
